--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -70,6 +70,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,16 +945,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>12.48</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -785,7 +785,7 @@
       </c>
       <c r="N6" s="4" t="inlineStr">
         <is>
-          <t>1 de 4</t>
+          <t>0 de 4</t>
         </is>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,105 +687,153 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>VACA PANCHI DORYS CAROLINA</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>0 de 4</t>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
         </is>
       </c>
     </row>
@@ -800,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,33 +976,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>VACA PANCHI DORYS CAROLINA</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="n">
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>12.48</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -858,10 +858,10 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -877,22 +877,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>febrero</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
     </row>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="7">
       <c r="C7" s="6" t="n">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12.48</v>
+        <v>3.47</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,7 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -895,6 +896,11 @@
           <t>junio</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +925,9 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -943,6 +952,9 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -967,6 +979,9 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -991,6 +1006,9 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1013,6 +1031,9 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,6 +1048,9 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +862,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -896,11 +895,6 @@
           <t>junio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRESUPUESTO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,9 +919,6 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -952,9 +943,6 @@
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -979,9 +967,6 @@
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1006,9 +991,6 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1031,9 +1013,6 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,9 +1027,6 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>57.86</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>0 de 5</t>
+          <t>1 de 5</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>57.86</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0</v>
+        <v>57.86</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,19 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,47 +495,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRIFERIAS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INODOROS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>LAVABOS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LED</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PANELES DECORATIVOS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PORCELANATO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
         </is>
       </c>
     </row>
@@ -582,6 +606,18 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -622,12 +658,24 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>57.86</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -678,6 +726,18 @@
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -726,6 +786,18 @@
       <c r="N5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -774,6 +846,18 @@
       <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" s="4" t="inlineStr">
@@ -823,15 +907,35 @@
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
           <t>1 de 5</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
       <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0 de 5</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>0 de 5</t>
         </is>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>0 de 5</t>
+          <t>1 de 5</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>1 de 5</t>
+          <t>2 de 5</t>
         </is>
       </c>
       <c r="N7" s="4" t="inlineStr">
@@ -965,7 +965,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>155.38</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57.86</v>
+        <v>213.24</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,137 +807,197 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>VACA PANCHI DORYS CAROLINA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>1 de 5</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>2 de 5</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>0 de 5</t>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>1 de 6</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>2 de 6</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>0 de 6</t>
         </is>
       </c>
     </row>
@@ -952,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,7 +1155,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -1122,39 +1182,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>VACA PANCHI DORYS CAROLINA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="6" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="6" t="n">
         <v>12.48</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D9" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="n">
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="n">
         <v>213.24</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G9" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -867,137 +867,257 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>VACA PANCHI DORYS CAROLINA</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>1 de 6</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
-        <is>
-          <t>2 de 6</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
-        </is>
-      </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t>0 de 6</t>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VIZUETE GALARZA EDWIN RODRIGO</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>1 de 8</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>2 de 8</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr">
+        <is>
+          <t>0 de 8</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,19 +1376,46 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="6" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VIZUETE GALARZA EDWIN RODRIGO</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="6" t="n">
         <v>12.48</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>213.24</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,14 +687,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CARRION ALVAREZ MARIO ANDRES</t>
+          <t>AREVALO SAQUICELA LUIS MARCELO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>91.58</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -747,14 +747,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>CARRION ALVAREZ MARIO ANDRES</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>0</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -987,137 +987,197 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>1 de 8</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
-        <is>
-          <t>2 de 8</t>
-        </is>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="O10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
-        </is>
-      </c>
-      <c r="R10" s="4" t="inlineStr">
-        <is>
-          <t>0 de 8</t>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>1 de 9</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>2 de 9</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>0 de 9</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,11 +1308,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CARRION ALVAREZ MARIO ANDRES</t>
+          <t>AREVALO SAQUICELA LUIS MARCELO</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -1261,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>155.38</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1275,11 +1335,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>CARRION ALVAREZ MARIO ANDRES</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -1288,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>155.38</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -1302,7 +1362,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1329,7 +1389,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1356,14 +1416,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1383,39 +1443,66 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="6" t="n">
         <v>12.48</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
         <v>213.24</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G11" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="10">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
-          <t>0 de 9</t>
+          <t>1 de 9</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>213.24</v>
+        <v>223.68</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>57.86</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>91.58</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>63.8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>1 de 9</t>
+          <t>0 de 9</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t>2 de 9</t>
+          <t>0 de 9</t>
         </is>
       </c>
       <c r="N11" s="4" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
-          <t>1 de 9</t>
+          <t>0 de 9</t>
         </is>
       </c>
     </row>
@@ -1203,9 +1203,9 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1222,22 +1222,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>57.86</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>155.38</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>155.38</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="11">
       <c r="C11" s="6" t="n">
-        <v>12.48</v>
+        <v>3.47</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0</v>
+        <v>997.8200000000001</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>223.68</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>GRANJA VANEGAS MARCELA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1047,137 +1047,197 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="N11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
-        </is>
-      </c>
-      <c r="R11" s="4" t="inlineStr">
-        <is>
-          <t>0 de 9</t>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
+        <is>
+          <t>0 de 10</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,7 +1422,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>GRANJA VANEGAS MARCELA</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1389,7 +1449,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1416,7 +1476,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -1443,17 +1503,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
@@ -1470,39 +1530,66 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="6" t="n">
         <v>3.47</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>997.8200000000001</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="n">
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>506.88</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>0 de 10</t>
+          <t>1 de 10</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1265,7 +1265,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1354,7 +1354,7 @@
         <v>832</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>506.88</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>997.8200000000001</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0</v>
+        <v>506.88</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -661,7 +661,7 @@
         <v>506.88</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>87.59</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
-          <t>0 de 10</t>
+          <t>1 de 10</t>
         </is>
       </c>
       <c r="N12" s="4" t="inlineStr">
@@ -1354,7 +1354,7 @@
         <v>832</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>506.88</v>
+        <v>594.47</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>997.8200000000001</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>506.88</v>
+        <v>594.47</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>506.88</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>87.59</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>1 de 10</t>
+          <t>0 de 10</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
-          <t>1 de 10</t>
+          <t>0 de 10</t>
         </is>
       </c>
       <c r="N12" s="4" t="inlineStr">
@@ -1262,8 +1262,8 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
@@ -1282,22 +1282,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>832</v>
+        <v>594.47</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>594.47</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>155.38</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>155.38</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="12">
       <c r="C12" s="6" t="n">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>997.8200000000001</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>997.8200000000001</v>
+        <v>594.47</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>594.47</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -72,6 +73,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1596,4 +1600,130 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="6">
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0</v>
+        <v>7490</v>
       </c>
     </row>
   </sheetData>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
-          <t>0 de 10</t>
+          <t>1 de 10</t>
         </is>
       </c>
       <c r="M12" s="4" t="inlineStr">
@@ -1358,7 +1358,7 @@
         <v>594.47</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2500</v>
@@ -1591,7 +1591,7 @@
         <v>594.47</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>7490</v>
@@ -1619,7 +1619,7 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>-142.56</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>10000</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>142.56</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10000</v>
+        <v>9857.440000000001</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>0.014256</v>
       </c>
     </row>
   </sheetData>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GRANJA VANEGAS MARCELA</t>
+          <t>CORREA IGLESIAS RAMIRO MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>GRANJA VANEGAS MARCELA</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1111,137 +1111,197 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>1 de 10</t>
-        </is>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="N12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
-        <is>
-          <t>0 de 10</t>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>1 de 11</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,7 +1486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GRANJA VANEGAS MARCELA</t>
+          <t>CORREA IGLESIAS RAMIRO MARCELO</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -1442,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1453,7 +1513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KITCHENSCO S.A.</t>
+          <t>GRANJA VANEGAS MARCELA</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -1469,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1540,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
+          <t>KITCHENSCO S.A.</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -1507,7 +1567,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PAREDES POVEDA TATIANA VERONICA</t>
+          <t>LINCANGO LUGMANIA SANDY LIZETH</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1534,14 +1594,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VACA PANCHI DORYS CAROLINA</t>
+          <t>PAREDES POVEDA TATIANA VERONICA</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1561,39 +1621,66 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>VACA PANCHI DORYS CAROLINA</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VACA PANCHI CAROLINA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>VIZUETE GALARZA EDWIN RODRIGO</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="n">
+    <row r="13">
+      <c r="C13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>997.8200000000001</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E13" s="6" t="n">
         <v>594.47</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F13" s="6" t="n">
         <v>142.56</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G13" s="6" t="n">
         <v>7490</v>
       </c>
     </row>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L13" s="4" t="inlineStr">
         <is>
-          <t>1 de 11</t>
+          <t>0 de 11</t>
         </is>
       </c>
       <c r="M13" s="4" t="inlineStr">
@@ -1326,10 +1326,10 @@
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>julio</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>septiembre</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>832</v>
+        <v>594.47</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>594.47</v>
+        <v>142.56</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>2500</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>155.38</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>155.38</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>10.44</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>0</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="13">
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>997.8200000000001</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>997.8200000000001</v>
+        <v>594.47</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>594.47</v>
+        <v>142.56</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>7490</v>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>7490</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -1706,7 +1706,7 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-142.56</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
@@ -1798,16 +1798,16 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9857.440000000001</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.014256</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/VACA PANCHI CAROLINA.xlsx
+++ b/data/VACA PANCHI CAROLINA.xlsx
@@ -1706,7 +1706,7 @@
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>-10.44</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>20000</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>-10.44</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>20000</v>
+        <v>20010.44</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0</v>
+        <v>-0.000522</v>
       </c>
     </row>
   </sheetData>
